--- a/biology/Médecine/Thyroxine/Thyroxine.xlsx
+++ b/biology/Médecine/Thyroxine/Thyroxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La thyroxine ou T4 est une hormone thyroïdienne agissant comme une prohormone devant être désiodée en triiodothyronine, ou T3, par la thyroxine 5'-désiodase pour être pleinement active. Elle est biosynthétisée chez les mammifères dans la thyroïde par iodation de la thyroglobuline sous l'action de l'iode introduit dans les cellules par la pendrine et oxydé en iode atomique par la thyroperoxydase, une enzyme dont l'expression est accrue par la thyréostimuline (TSH). Elle est inactivée par la thyroxine 5-désiodase, qui la convertit en 3,3',5'-triiodothyronine ou « T3 inverse », isomère inactif de la T3.
